--- a/data/pros_df.xlsx
+++ b/data/pros_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A803"/>
+  <dimension ref="A1:A804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2991,56 +2991,56 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>avantage bon collegue</t>
+          <t>-pluralite mission intellectuellement</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>outil performant pc</t>
+          <t>mission intellectuellement stimulant</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>ambiance cabinet</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>salaire fourchette marche</t>
+          <t>avantage bon collegue</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>fourchette marche consulting</t>
+          <t>outil performant pc</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>-pluralite mission intellectuellement</t>
+          <t>telephone</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>mission intellectuellement stimulant</t>
+          <t>salaire fourchette marche</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ambiance cabinet</t>
+          <t>fourchette marche consulting</t>
         </is>
       </c>
     </row>
@@ -5987,68 +5987,75 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>beaucoup flexibilite bon</t>
+          <t>mentalite intrapreuneur liberte</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>flexibilite bon equipe</t>
+          <t>beaucoup flexibilite bon</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>salaire</t>
+          <t>flexibilite bon equipe</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>autonomie</t>
+          <t>salaire</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>ambiance</t>
+          <t>autonomie</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>perspectif</t>
+          <t>ambiance</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>mission</t>
+          <t>perspectif</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>cadre interessant</t>
+          <t>mission</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>salaire moyenne autre</t>
+          <t>cadre interessant</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
+        <is>
+          <t>salaire moyenne autre</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
         <is>
           <t>moyenne autre cabinet</t>
         </is>
